--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>infected</t>
   </si>
   <si>
     <t>collapse</t>
@@ -73,13 +79,31 @@
     <t>sc</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>emergency</t>
@@ -88,178 +112,193 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>special</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>toronto</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>create</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>team</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>funny</t>
+    <t>security</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>increase</t>
   </si>
   <si>
     <t>important</t>
@@ -268,19 +307,22 @@
     <t>credit</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>increased</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
 </sst>
 </file>
@@ -638,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -757,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9473684210526315</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8321917808219178</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C5">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -857,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -907,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -957,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,16 +1020,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.9333333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7222222222222222</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7027027027027027</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1157,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6153846153846154</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.8955613577023499</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="L12">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M12">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5925925925925926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>0.8928571428571429</v>
@@ -1257,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5490196078431373</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8846153846153846</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5387596899224806</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C15">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.8793103448275862</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4406779661016949</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.8787878787878788</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.32</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.8773584905660378</v>
+        <v>0.86875</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3090909090909091</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.8723404255319149</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2857142857142857</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.8625</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L19">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2818791946308725</v>
+        <v>0.4161073825503356</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1617,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,184 +1649,328 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.05952380952380952</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L21">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>31</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22">
+        <v>0.8584905660377359</v>
+      </c>
+      <c r="L22">
+        <v>91</v>
+      </c>
+      <c r="M22">
+        <v>91</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>15</v>
       </c>
-      <c r="D21">
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.40625</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L23">
         <v>15</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>237</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.8604651162790697</v>
-      </c>
-      <c r="L21">
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.3466666666666667</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>49</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25">
+        <v>0.8125</v>
+      </c>
+      <c r="L25">
+        <v>39</v>
+      </c>
+      <c r="M25">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>37</v>
       </c>
-      <c r="M21">
+      <c r="J26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L26">
+        <v>51</v>
+      </c>
+      <c r="M26">
+        <v>51</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>37</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.8591549295774648</v>
-      </c>
-      <c r="L22">
-        <v>122</v>
-      </c>
-      <c r="M22">
-        <v>122</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L23">
-        <v>70</v>
-      </c>
-      <c r="M23">
-        <v>70</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.8515625</v>
-      </c>
-      <c r="L24">
-        <v>109</v>
-      </c>
-      <c r="M24">
-        <v>109</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L25">
-        <v>14</v>
-      </c>
-      <c r="M25">
-        <v>14</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L26">
-        <v>22</v>
-      </c>
-      <c r="M26">
-        <v>22</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K27">
         <v>0.8</v>
@@ -1809,17 +1995,41 @@
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>42</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.7916666666666666</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1831,21 +2041,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>231</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.7894736842105263</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1857,21 +2091,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.04289544235924933</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>357</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.775</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1883,21 +2141,45 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.004516129032258065</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>0.33</v>
+      </c>
+      <c r="F31">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3086</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.75</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1909,12 +2191,36 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.004077791718946048</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>3175</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K32">
         <v>0.75</v>
@@ -1940,16 +2246,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K33">
         <v>0.75</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,21 +2267,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.7428571428571429</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,12 +2293,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K35">
         <v>0.7382352941176471</v>
@@ -2018,16 +2324,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.7301587301587301</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L36">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2039,21 +2345,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2065,21 +2371,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.7142857142857143</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L38">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="M38">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2091,21 +2397,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.7142857142857143</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2114,24 +2420,24 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.7078651685393258</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L40">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2143,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.7071129707112971</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L41">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="M41">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2169,21 +2475,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.6923076923076923</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2195,21 +2501,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.6915254237288135</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L43">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2221,21 +2527,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K44">
-        <v>0.6914893617021277</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2247,21 +2553,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.6363636363636364</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2273,12 +2579,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K46">
         <v>0.6296296296296297</v>
@@ -2304,16 +2610,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.6274509803921569</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2325,21 +2631,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.6190476190476191</v>
+        <v>0.625</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2351,21 +2657,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2377,15 +2683,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.6086956521739131</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L50">
         <v>14</v>
@@ -2403,21 +2709,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.5925925925925926</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2429,12 +2735,12 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K52">
         <v>0.5652173913043478</v>
@@ -2460,42 +2766,42 @@
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.5609756097560976</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.5483870967741935</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2507,21 +2813,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.5416666666666666</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2533,21 +2839,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.5357142857142857</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2559,21 +2865,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.5333333333333333</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2585,21 +2891,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K58">
-        <v>0.4705882352941176</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2611,21 +2917,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K59">
-        <v>0.4615384615384616</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L59">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2637,21 +2943,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K60">
-        <v>0.3835616438356164</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2663,21 +2969,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>0.359375</v>
+        <v>0.328125</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2689,21 +2995,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.3389830508474576</v>
+        <v>0.325</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2715,21 +3021,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>0.2916666666666667</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2741,7 +3047,111 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>51</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K64">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="L64">
+        <v>15</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K65">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="L65">
+        <v>15</v>
+      </c>
+      <c r="M65">
+        <v>15</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K66">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="L66">
+        <v>16</v>
+      </c>
+      <c r="M66">
+        <v>16</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67">
+        <v>0.004077791718946048</v>
+      </c>
+      <c r="L67">
+        <v>13</v>
+      </c>
+      <c r="M67">
+        <v>26</v>
+      </c>
+      <c r="N67">
+        <v>0.5</v>
+      </c>
+      <c r="O67">
+        <v>0.5</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>3175</v>
       </c>
     </row>
   </sheetData>
